--- a/biology/Médecine/Virus_de_la_forêt_de_Barmah/Virus_de_la_forêt_de_Barmah.xlsx
+++ b/biology/Médecine/Virus_de_la_forêt_de_Barmah/Virus_de_la_forêt_de_Barmah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Virus_de_la_for%C3%AAt_de_Barmah</t>
+          <t>Virus_de_la_forêt_de_Barmah</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barmah Forest virus
-Le Virus de la forêt de Barmah, Barmah Forest virus, est une espèce virus qu’on trouve uniquement en Australie. Selon une fiche d'information des services de santé publique du Queensland, « il n'existe pas de traitement médicamenteux spécifique » contre ce virus, mais la maladie n'est pas mortelle et relativement bénigne. Le virus est transmis aux humains par la piqûre de moustiques infectés, les espèces Aedes vigilax et Culex annulirostris[2], et il n’existe pas de transmission interhumaine. Le virus est probablement hébergé par des oiseaux sauvages ou des marsupiaux.
+Le Virus de la forêt de Barmah, Barmah Forest virus, est une espèce virus qu’on trouve uniquement en Australie. Selon une fiche d'information des services de santé publique du Queensland, « il n'existe pas de traitement médicamenteux spécifique » contre ce virus, mais la maladie n'est pas mortelle et relativement bénigne. Le virus est transmis aux humains par la piqûre de moustiques infectés, les espèces Aedes vigilax et Culex annulirostris, et il n’existe pas de transmission interhumaine. Le virus est probablement hébergé par des oiseaux sauvages ou des marsupiaux.
 Les symptômes de l’infection sont la fièvre, un malaise, une éruption cutanée, des douleurs articulaires, une faiblesse musculaire. La fièvre et les signes généraux disparaissent généralement en quelques jours à une semaine, mais d'autres symptômes comme les douleurs articulaires peuvent persister jusqu'à six mois. 
 Les symptômes d’une infection par ce virus sont presque impossibles à distinguer de ceux dus au virus de Ross River. 
 Le virus a été découvert en 1974 chez les moustiques de la forêt de Barmah au nord de l’État de Victoria.
-Durant les années 1995–2008, 15592 cas de BFV sont enregistrés en Australie. Parmi eux, le Queensland enregistre le plus grand nombre de cas avec 8050, soit plus de 50% du total[3]. En 2011, 1855 personnes sont diagnostiques avec le BFV[4].
+Durant les années 1995–2008, 15592 cas de BFV sont enregistrés en Australie. Parmi eux, le Queensland enregistre le plus grand nombre de cas avec 8050, soit plus de 50% du total. En 2011, 1855 personnes sont diagnostiques avec le BFV.
 </t>
         </is>
       </c>
